--- a/汽柴煤油2.0/eta/欧洲柴油单一利润拟合残差_10ppm_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/欧洲柴油单一利润拟合残差_10ppm_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="C3" t="n">
         <v>2.8</v>
@@ -562,7 +562,7 @@
         <v>1.9</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11">
